--- a/Project/Resultat/Survey-Mikael Completed.xlsx
+++ b/Project/Resultat/Survey-Mikael Completed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claudedb\Documents\GitHub\RecSys\Project\Resultat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikap\OneDrive\Documents\GitHub\RecSys\Project\Resultat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{708282E9-BA13-4B5F-BF01-37D2ACF07402}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="10_ncr:100000_{708282E9-BA13-4B5F-BF01-37D2ACF07402}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00830056-94EF-4E14-93E1-BAC0A275B60E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6072" activeTab="4" xr2:uid="{CD408A3A-10AF-4FC3-A602-626500AC48E0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6072" firstSheet="2" activeTab="5" xr2:uid="{CD408A3A-10AF-4FC3-A602-626500AC48E0}"/>
   </bookViews>
   <sheets>
     <sheet name="CIV4510" sheetId="5" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="ELE3500" sheetId="3" r:id="rId3"/>
     <sheet name="ELE1403" sheetId="2" r:id="rId4"/>
     <sheet name="IND2601" sheetId="1" r:id="rId5"/>
+    <sheet name="Exploration" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="184">
   <si>
     <t>TitreCours: Reingenierie de processus d'affaires</t>
   </si>
@@ -470,6 +471,123 @@
   </si>
   <si>
     <t>log.entropy</t>
+  </si>
+  <si>
+    <t>ELE3500</t>
+  </si>
+  <si>
+    <t>ENE6905</t>
+  </si>
+  <si>
+    <t>INF4405</t>
+  </si>
+  <si>
+    <t>ICM4319</t>
+  </si>
+  <si>
+    <t>ELE6903</t>
+  </si>
+  <si>
+    <t>TI460</t>
+  </si>
+  <si>
+    <t>GCH8620</t>
+  </si>
+  <si>
+    <t>lsa.tfidf-50</t>
+  </si>
+  <si>
+    <t>lsa.tfidf-100</t>
+  </si>
+  <si>
+    <t>lsa.log-50</t>
+  </si>
+  <si>
+    <t>lsa.log-100</t>
+  </si>
+  <si>
+    <t>lsa-50</t>
+  </si>
+  <si>
+    <t>lsa-100</t>
+  </si>
+  <si>
+    <t>GML6203</t>
+  </si>
+  <si>
+    <t>ELE4458</t>
+  </si>
+  <si>
+    <t>lsa-tfidf-focus</t>
+  </si>
+  <si>
+    <t>lsa-tfidf-shuffle</t>
+  </si>
+  <si>
+    <t>lsa-log-focus</t>
+  </si>
+  <si>
+    <t>lsa-log-shuffle</t>
+  </si>
+  <si>
+    <t>lsa-focus</t>
+  </si>
+  <si>
+    <t>lsa-shuffle</t>
+  </si>
+  <si>
+    <t>ELE4306</t>
+  </si>
+  <si>
+    <t>GCH2310</t>
+  </si>
+  <si>
+    <t>GCH1201</t>
+  </si>
+  <si>
+    <t>LOG4430</t>
+  </si>
+  <si>
+    <t>MEC4210</t>
+  </si>
+  <si>
+    <t>GCH6903</t>
+  </si>
+  <si>
+    <t>MEC3215</t>
+  </si>
+  <si>
+    <t>GLQ2200</t>
+  </si>
+  <si>
+    <t>CIV6910</t>
+  </si>
+  <si>
+    <t>ELE4704</t>
+  </si>
+  <si>
+    <t>MTR1000D</t>
+  </si>
+  <si>
+    <t>GBM2330</t>
+  </si>
+  <si>
+    <t>PHS4210</t>
+  </si>
+  <si>
+    <t>GLQ1700</t>
+  </si>
+  <si>
+    <t>CY150</t>
+  </si>
+  <si>
+    <t>ELE2302</t>
+  </si>
+  <si>
+    <t>MTR1120</t>
+  </si>
+  <si>
+    <t>ELE3703</t>
   </si>
 </sst>
 </file>
@@ -485,15 +603,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -501,11 +625,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -522,6 +676,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -750,7 +907,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1052,14 +1209,14 @@
       <selection activeCell="H4" sqref="H4:M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="115.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="115.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -1069,7 +1226,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1107,7 +1264,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1145,7 +1302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1183,7 +1340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1221,7 +1378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1259,7 +1416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1297,7 +1454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1335,7 +1492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1373,7 +1530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1411,7 +1568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1449,7 +1606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1487,7 +1644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H15">
         <f>AVERAGE(Table135[tf.idf])</f>
         <v>2.9</v>
@@ -1534,9 +1691,9 @@
       <selection activeCell="H4" sqref="H4:M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
@@ -1546,7 +1703,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:13" ht="150.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:13" ht="150.30000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -1556,7 +1713,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1594,7 +1751,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>64</v>
       </c>
@@ -1632,7 +1789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -1670,7 +1827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -1708,7 +1865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -1746,7 +1903,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -1784,7 +1941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -1822,7 +1979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -1860,7 +2017,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1898,7 +2055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>70</v>
       </c>
@@ -1936,7 +2093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>71</v>
       </c>
@@ -1974,7 +2131,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H15">
         <f>AVERAGE(H5:H14)</f>
         <v>1.9</v>
@@ -2017,19 +2174,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A960A37-1EFC-40B0-B19D-1A1DBE1A0D0A}">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:M4"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="9.5234375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.3125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.3125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1015625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -2039,7 +2196,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:13" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:13" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
@@ -2049,7 +2206,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2087,7 +2244,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>75</v>
       </c>
@@ -2125,7 +2282,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -2163,7 +2320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>73</v>
       </c>
@@ -2201,7 +2358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>90</v>
       </c>
@@ -2239,7 +2396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>94</v>
       </c>
@@ -2277,7 +2434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>80</v>
       </c>
@@ -2315,7 +2472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>81</v>
       </c>
@@ -2353,7 +2510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>77</v>
       </c>
@@ -2391,7 +2548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>93</v>
       </c>
@@ -2429,7 +2586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>88</v>
       </c>
@@ -2467,7 +2624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G15" t="s">
         <v>138</v>
       </c>
@@ -2513,16 +2670,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D8BFFE-C97A-49A5-A6AD-F769930B2FCB}">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:M4"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="12.1015625" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
@@ -2532,7 +2689,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:13" ht="86.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:13" ht="86.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -2542,7 +2699,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2580,7 +2737,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>95</v>
       </c>
@@ -2618,7 +2775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>92</v>
       </c>
@@ -2656,7 +2813,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>96</v>
       </c>
@@ -2694,7 +2851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2732,7 +2889,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>98</v>
       </c>
@@ -2770,7 +2927,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>107</v>
       </c>
@@ -2808,7 +2965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>97</v>
       </c>
@@ -2846,7 +3003,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -2884,7 +3041,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>82</v>
       </c>
@@ -2922,7 +3079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>80</v>
       </c>
@@ -2960,7 +3117,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H15">
         <f>AVERAGE(Table1311[terme.terme])</f>
         <v>3.9</v>
@@ -3003,16 +3160,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C992FEB-F031-415E-8C80-2F1D6DF48FBD}">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="F2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="13.41796875" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3022,7 +3179,7 @@
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:13" ht="123.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:13" ht="123.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3032,7 +3189,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3070,7 +3227,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>108</v>
       </c>
@@ -3108,7 +3265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>109</v>
       </c>
@@ -3146,7 +3303,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>110</v>
       </c>
@@ -3184,7 +3341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>111</v>
       </c>
@@ -3222,7 +3379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>112</v>
       </c>
@@ -3260,7 +3417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>113</v>
       </c>
@@ -3298,7 +3455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -3336,7 +3493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>115</v>
       </c>
@@ -3374,7 +3531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>116</v>
       </c>
@@ -3412,7 +3569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>117</v>
       </c>
@@ -3450,7 +3607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H15">
         <f>AVERAGE(Table1313[lsa.tfidf])</f>
         <v>2.2000000000000002</v>
@@ -3487,4 +3644,397 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{062210DB-3DD1-4A92-A775-A2BD6B5572AF}">
+  <dimension ref="A1:F36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27:D36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B14" t="s">
+        <v>155</v>
+      </c>
+      <c r="D14" t="s">
+        <v>162</v>
+      </c>
+      <c r="F14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>158</v>
+      </c>
+      <c r="D24" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>156</v>
+      </c>
+      <c r="B26" t="s">
+        <v>157</v>
+      </c>
+      <c r="D26" t="s">
+        <v>164</v>
+      </c>
+      <c r="F26" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" t="s">
+        <v>159</v>
+      </c>
+      <c r="D30" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" t="s">
+        <v>183</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>